--- a/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\develop\app\project_Parfait\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91200FA-A32F-4D43-BE19-189F26184003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6BEB33-80A1-4058-9357-E511C5CE915D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="808" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="808" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンセプト" sheetId="1" r:id="rId1"/>
@@ -53991,6 +53991,26 @@
             <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>→人が座っている？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -54573,8 +54593,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="R56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CQ33" sqref="CQ33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>

--- a/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6BEB33-80A1-4058-9357-E511C5CE915D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2BD9EC-84CB-4430-87C1-7600ED054C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="808" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62520" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="808" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンセプト" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -54110,6 +54118,101 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>191406</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>116566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104321</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="吹き出し: 折線 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{533EEBF5-030F-4864-86AB-5FF68CCF5C12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11621406" y="1504495"/>
+          <a:ext cx="3890737" cy="913040"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 212351"/>
+            <a:gd name="adj6" fmla="val -59662"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ユーザの写真は全体的にキャッシュする？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>キャッシュがたまらない仕組みも検討が必要</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -54593,8 +54696,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="R56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CQ33" sqref="CQ33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CH8" sqref="CH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>

--- a/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2BD9EC-84CB-4430-87C1-7600ED054C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D59F183-4120-45D3-B00C-371E7C478A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62520" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="808" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="808" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンセプト" sheetId="1" r:id="rId1"/>
@@ -48819,16 +48819,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
@@ -48837,38 +48827,8 @@
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>今オンラインの人を</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>一人ずつカードで表示</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
+            <a:t>開いてる人の予定カレンダ</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -54208,6 +54168,320 @@
             </a:rPr>
             <a:t>キャッシュがたまらない仕組みも検討が必要</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>123370</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>170996</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="吹き出し: 折線 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBACE8A0-4F5B-4C31-B226-ECF16892AEEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11757477" y="402317"/>
+          <a:ext cx="5305880" cy="916215"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 315183"/>
+            <a:gd name="adj6" fmla="val -61412"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>写真は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>FirebaseStorage</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>でなく、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>GCP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>のサーバに直接見に行く</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>https://qiita.com/qrusadorz/items/4a8e62c20bc788ab0585</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190046</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>222248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="吹き出し: 折線 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB298AA-A121-43A7-84D4-76AE7EE55817}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4780189" y="1582962"/>
+          <a:ext cx="4309382" cy="1020538"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 12056"/>
+            <a:gd name="adj6" fmla="val -28564"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>メディアクエリの値をログイン時に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Common</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>のプロバイダに入れる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Widget</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>のサイズ設定を共通部品の中に任せる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>部品の引数には</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Ref</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>のみを追加</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -54696,8 +54970,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="R56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CH8" sqref="CH8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>

--- a/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D59F183-4120-45D3-B00C-371E7C478A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256FD877-D5B0-4262-92FD-4467FF0860E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="808" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54971,7 +54971,7 @@
   <dimension ref="R56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="CK7" sqref="CK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>

--- a/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256FD877-D5B0-4262-92FD-4467FF0860E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BAB7CC-5C84-4284-AA12-46C2E5E35E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="808" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="808" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンセプト" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="136">
   <si>
     <t>・</t>
     <phoneticPr fontId="1"/>
@@ -1644,23 +1644,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イベント画面→メモリでなくDBに持つように変更</t>
-    <rPh sb="16" eb="17">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■クライアント処理</t>
-    <rPh sb="7" eb="9">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>検索条件のカテゴリ、コースを実装</t>
     <rPh sb="0" eb="4">
       <t>ケンサクジョウケン</t>
@@ -1671,10 +1654,53 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログファイルを出力する</t>
+    <t>繰り返し予定を登録できるようにする</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨテイ</t>
+    </rPh>
     <rPh sb="7" eb="9">
-      <t>シュツリョク</t>
+      <t>トウロク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダの確度を登録できるようにする</t>
+    <rPh sb="5" eb="7">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CALL機能の実装</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエスト画面を整える</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トトノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.syncfusion.com/kb/12158/how-to-add-recurring-appointments-until-the-specified-date-in-the-flutter-calendar</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1682,7 +1708,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1763,6 +1789,14 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1870,10 +1904,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1925,8 +1960,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -54318,15 +54355,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>190046</xdr:colOff>
+      <xdr:colOff>18143</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>222248</xdr:rowOff>
+      <xdr:rowOff>222247</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>181427</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -54341,8 +54378,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4780189" y="1582962"/>
-          <a:ext cx="4309382" cy="1020538"/>
+          <a:off x="4608286" y="1582961"/>
+          <a:ext cx="4481285" cy="1319895"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -54482,6 +54519,81 @@
             <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>907</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>198208</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>9073</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>185963</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="吹き出し: 折線 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADC9D50-5264-410D-9C51-96250E397C6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17762764" y="6774994"/>
+          <a:ext cx="3800023" cy="894898"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 95778"/>
+            <a:gd name="adj6" fmla="val -34835"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>バーチャル旅行コース</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -54970,8 +55082,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="R56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CK7" sqref="CK7"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BB25" sqref="BB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
@@ -54991,38 +55103,51 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5E755-29D3-405E-8CC7-1C2D184F0E22}">
-  <dimension ref="B12:B15"/>
+  <dimension ref="B7:B14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
+    <row r="7" spans="2:2">
+      <c r="B7" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>130</v>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{4A221924-37BE-4ABA-8905-8906F4063405}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BAB7CC-5C84-4284-AA12-46C2E5E35E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A840821-81CC-447A-9D73-8691F5399456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="808" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62520" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="808" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンセプト" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="138">
   <si>
     <t>・</t>
     <phoneticPr fontId="1"/>
@@ -1654,32 +1654,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>繰り返し予定を登録できるようにする</t>
-    <rPh sb="0" eb="1">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カレンダの確度を登録できるようにする</t>
-    <rPh sb="5" eb="7">
-      <t>カクド</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CALL機能の実装</t>
     <rPh sb="4" eb="6">
       <t>キノウ</t>
@@ -1701,6 +1675,49 @@
   </si>
   <si>
     <t>https://www.syncfusion.com/kb/12158/how-to-add-recurring-appointments-until-the-specified-date-in-the-flutter-calendar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nowページの予定の取得</t>
+    <rPh sb="7" eb="9">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→繰り返し予定は日付によらず取得する</t>
+    <rPh sb="1" eb="2">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→FROMの日付でみているため、過去1日分余裕を持ってとっている。そのため無駄なイベントも取得しているので、ユーザリストを作る処理の中でTOの時間で選別する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエスト登録処理のチェック</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1951,6 +1968,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1960,7 +1978,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -55103,41 +55120,51 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5E755-29D3-405E-8CC7-1C2D184F0E22}">
-  <dimension ref="B7:B14"/>
+  <dimension ref="B7:B21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="7" spans="2:2">
-      <c r="B7" s="21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>131</v>
+      <c r="B7" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
         <v>130</v>
       </c>
     </row>
@@ -55360,11 +55387,11 @@
     </row>
     <row r="2" spans="1:39" ht="24">
       <c r="A2" s="4"/>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:39">
       <c r="B3" s="8" t="s">

--- a/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A840821-81CC-447A-9D73-8691F5399456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F186E13E-65CE-481B-9D03-91B7FF455CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62520" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="808" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="65745" yWindow="6420" windowWidth="21600" windowHeight="11175" tabRatio="808" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンセプト" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="ディレクトリ設計" sheetId="13" r:id="rId10"/>
     <sheet name="画面遷移図" sheetId="2" r:id="rId11"/>
     <sheet name="残課題・タスク" sheetId="14" r:id="rId12"/>
+    <sheet name="Nowページの表示ロジック" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="145">
   <si>
     <t>・</t>
     <phoneticPr fontId="1"/>
@@ -1711,12 +1712,82 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リクエスト登録処理のチェック</t>
+    <t>リクエスト画面のAppointment初期化処理を使うようにする</t>
     <rPh sb="5" eb="7">
-      <t>トウロク</t>
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nowページの表示ロジック</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nowページに表示させたいイベント情報</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体条件</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先順位</t>
+    <rPh sb="0" eb="2">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソート順</t>
+    <rPh sb="3" eb="4">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>圧縮ロジックの変更flutter_native_imageを使用する？</t>
+    <rPh sb="0" eb="2">
+      <t>アッシュク</t>
     </rPh>
     <rPh sb="7" eb="9">
-      <t>ショリ</t>
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1725,7 +1796,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1814,6 +1885,15 @@
       <color theme="10"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1925,7 +2005,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1969,6 +2049,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -55120,10 +55202,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5E755-29D3-405E-8CC7-1C2D184F0E22}">
-  <dimension ref="B7:B21"/>
+  <dimension ref="B7:B22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -55133,39 +55215,44 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>130</v>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -55175,6 +55262,73 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B804C3-5836-4065-964A-478AFCFB98EF}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="2.58203125" customWidth="1"/>
+    <col min="4" max="4" width="22.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22.5">
+      <c r="A1" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="20"/>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -55387,11 +55541,11 @@
     </row>
     <row r="2" spans="1:39" ht="24">
       <c r="A2" s="4"/>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:39">
       <c r="B3" s="8" t="s">

--- a/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F186E13E-65CE-481B-9D03-91B7FF455CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8444266C-9393-4546-9E81-96146B0A2A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="65745" yWindow="6420" windowWidth="21600" windowHeight="11175" tabRatio="808" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="63780" yWindow="1140" windowWidth="21600" windowHeight="11175" tabRatio="808" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンセプト" sheetId="1" r:id="rId1"/>
@@ -55205,7 +55205,7 @@
   <dimension ref="B7:B22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8444266C-9393-4546-9E81-96146B0A2A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43CAC98-2D2F-4F57-84BF-DF0F852D1E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63780" yWindow="1140" windowWidth="21600" windowHeight="11175" tabRatio="808" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="808" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンセプト" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="146">
   <si>
     <t>・</t>
     <phoneticPr fontId="1"/>
@@ -1791,6 +1791,13 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>みんチャレを参考にする</t>
+    <rPh sb="6" eb="8">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -55202,10 +55209,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5E755-29D3-405E-8CC7-1C2D184F0E22}">
-  <dimension ref="B7:B22"/>
+  <dimension ref="B7:B24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -55253,6 +55260,11 @@
     <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43CAC98-2D2F-4F57-84BF-DF0F852D1E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6412E4EB-AB13-4C17-B924-DB1CCF7D9DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="808" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="148">
   <si>
     <t>・</t>
     <phoneticPr fontId="1"/>
@@ -1798,6 +1798,26 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Call画面のミュートを実装</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Call画面のチャットを実装</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -55209,10 +55229,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5E755-29D3-405E-8CC7-1C2D184F0E22}">
-  <dimension ref="B7:B24"/>
+  <dimension ref="B7:B25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -55222,48 +55242,58 @@
         <v>133</v>
       </c>
     </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
+    </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>131</v>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
         <v>145</v>
       </c>
     </row>

--- a/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6412E4EB-AB13-4C17-B924-DB1CCF7D9DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAB7CBE-873C-48A7-8D0A-84860270848C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="808" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="22540" windowHeight="14300" tabRatio="808" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンセプト" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="146">
   <si>
     <t>・</t>
     <phoneticPr fontId="1"/>
@@ -1655,16 +1655,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CALL機能の実装</t>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リクエスト画面を整える</t>
     <rPh sb="5" eb="7">
       <t>ガメン</t>
@@ -1799,21 +1789,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Call画面のミュートを実装</t>
+    <t>Call画面のチャネルチャットを実装</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Call画面のチャットを実装</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
+    <rPh sb="16" eb="18">
       <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -54725,6 +54705,341 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>119967</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>199353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>92980</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>187778</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF1F978-3D37-417A-86A2-3D309FFFFCF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="519110" y="5642210"/>
+          <a:ext cx="1569584" cy="2256282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>International</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>版</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>chakuwiki</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>119967</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>163067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>92980</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>151492</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF953A2-2966-48D1-BEAD-E24DA72DE15C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="519110" y="8780924"/>
+          <a:ext cx="1569584" cy="2256282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>紛争解決</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>→世界情勢共有</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>100123</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>194128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>112823</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>169417</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Connector: Elbow 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B70A641-0989-4C58-A6B2-929F6F1D7CA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="87" idx="2"/>
+          <a:endCxn id="88" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="862686" y="8339708"/>
+          <a:ext cx="882432" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>57148</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>60613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>132524</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57892</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="吹き出し: 折線 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F50BB40-15D4-4A28-AB08-06D0B7F0733E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17513875" y="1757795"/>
+          <a:ext cx="2361376" cy="967097"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>PC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>版の通話画面を用意する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -55057,7 +55372,7 @@
       <selection pane="bottomLeft" activeCell="BC34" sqref="BC34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -55074,14 +55389,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="84.9140625" customWidth="1"/>
-    <col min="4" max="4" width="41.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="84.875" customWidth="1"/>
+    <col min="4" max="4" width="41.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.5">
+    <row r="1" spans="1:5" ht="25.5">
       <c r="A1" s="14" t="s">
         <v>121</v>
       </c>
@@ -55103,7 +55418,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="36">
+    <row r="4" spans="1:5" ht="37.5">
       <c r="A4" s="15">
         <v>1</v>
       </c>
@@ -55133,7 +55448,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="36">
+    <row r="6" spans="1:5" ht="37.5">
       <c r="A6" s="15">
         <v>3</v>
       </c>
@@ -55163,7 +55478,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="36">
+    <row r="8" spans="1:5" ht="37.5">
       <c r="A8" s="15">
         <v>5</v>
       </c>
@@ -55208,11 +55523,11 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="R56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BB25" sqref="BB25"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="DB14" sqref="DB14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="56" spans="18:18">
       <c r="R56" t="s">
@@ -55231,55 +55546,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5E755-29D3-405E-8CC7-1C2D184F0E22}">
   <dimension ref="B7:B25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="7" spans="2:2">
       <c r="B7" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -55289,12 +55594,12 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -55315,37 +55620,37 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="2.58203125" customWidth="1"/>
-    <col min="4" max="4" width="22.9140625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5">
+    <row r="1" spans="1:5" ht="24">
       <c r="A1" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="20"/>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="C7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" t="s">
         <v>141</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>142</v>
-      </c>
-      <c r="E7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -55385,9 +55690,9 @@
       <selection activeCell="BC34" sqref="BC34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="2.58203125" style="1"/>
+    <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5">
@@ -55564,16 +55869,16 @@
       <selection activeCell="BC34" sqref="BC34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="1"/>
-    <col min="3" max="5" width="13.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1"/>
+    <col min="3" max="5" width="13.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="37" style="1" customWidth="1"/>
     <col min="7" max="7" width="23" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="1"/>
+    <col min="8" max="8" width="43.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24">
@@ -55649,7 +55954,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:39" ht="52.5">
+    <row r="6" spans="1:39" ht="56.25">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -55734,7 +56039,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:39" ht="35">
+    <row r="10" spans="1:39" ht="37.5">
       <c r="B10" s="5">
         <v>7</v>
       </c>
@@ -55775,7 +56080,7 @@
     <row r="14" spans="1:39">
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:39" ht="52.5">
+    <row r="15" spans="1:39" ht="56.25">
       <c r="F15" s="6" t="s">
         <v>41</v>
       </c>
@@ -55822,16 +56127,16 @@
       <selection pane="bottomLeft" activeCell="BC34" sqref="BC34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="9"/>
-    <col min="2" max="2" width="20.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="47.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="49.08203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="9"/>
+    <col min="2" max="2" width="20.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="47.375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="49.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="29.375" style="9" customWidth="1"/>
     <col min="6" max="6" width="27.75" style="9" customWidth="1"/>
-    <col min="7" max="7" width="36.33203125" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="9"/>
+    <col min="7" max="7" width="36.375" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="8.625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24">
@@ -55839,8 +56144,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" thickBot="1"/>
-    <row r="3" spans="1:7" ht="18" thickBot="1">
+    <row r="2" spans="1:7" ht="19.5" thickBot="1"/>
+    <row r="3" spans="1:7" ht="19.5" thickBot="1">
       <c r="E3" s="12" t="s">
         <v>110</v>
       </c>
@@ -55870,7 +56175,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="87.5">
+    <row r="5" spans="1:7" ht="93.75">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -55916,7 +56221,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="35">
+    <row r="7" spans="1:7" ht="37.5">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -55929,7 +56234,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="70">
+    <row r="8" spans="1:7" ht="75">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -56002,7 +56307,7 @@
       <selection activeCell="BC34" sqref="BC34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="3" spans="4:5">
       <c r="D3" t="s">
@@ -56133,7 +56438,7 @@
       <selection activeCell="BC34" sqref="BC34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -56153,9 +56458,9 @@
       <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="2.58203125" style="1"/>
+    <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3">
@@ -56220,9 +56525,9 @@
       <selection activeCell="BC34" sqref="BC34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="2.58203125" style="1"/>
+    <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:3">
@@ -56350,7 +56655,7 @@
       <selection activeCell="AI16" sqref="AI16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAB7CBE-873C-48A7-8D0A-84860270848C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951DEC77-F0B3-45FC-B9A2-35423DD02E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="22540" windowHeight="14300" tabRatio="808" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="808" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンセプト" sheetId="1" r:id="rId1"/>

--- a/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/3_0_概要設計_ver.0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951DEC77-F0B3-45FC-B9A2-35423DD02E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9E5AC8-1C0F-4F01-BB5D-C0FCEF430CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="808" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62520" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="808" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンセプト" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,9 @@
     <sheet name="アーキテクチャ" sheetId="4" r:id="rId9"/>
     <sheet name="ディレクトリ設計" sheetId="13" r:id="rId10"/>
     <sheet name="画面遷移図" sheetId="2" r:id="rId11"/>
-    <sheet name="残課題・タスク" sheetId="14" r:id="rId12"/>
-    <sheet name="Nowページの表示ロジック" sheetId="15" r:id="rId13"/>
+    <sheet name="画面遷移図 (Initial Stage)" sheetId="17" r:id="rId12"/>
+    <sheet name="残課題・タスク" sheetId="14" r:id="rId13"/>
+    <sheet name="Nowページの表示ロジック" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55043,6 +55044,95 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3DDF4D8-3758-474A-BD31-E51C6B555DE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9525"/>
+          <a:ext cx="1068160" cy="283029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Convas</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1" u="sng">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BE2497A-067B-46E3-B8E3-276854B86D61}" name="テーブル1" displayName="テーブル1" ref="A4:G12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A4:G12" xr:uid="{9BE2497A-067B-46E3-B8E3-276854B86D61}"/>
@@ -55386,7 +55476,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -55543,11 +55633,26 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6AB3B0-602F-4A19-8C52-F7AC2EA5FC52}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5E755-29D3-405E-8CC7-1C2D184F0E22}">
   <dimension ref="B7:B25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -55612,7 +55717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B804C3-5836-4065-964A-478AFCFB98EF}">
   <dimension ref="A1:E11"/>
   <sheetViews>
